--- a/doc/api_bug.xlsx
+++ b/doc/api_bug.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>pvmtsys/alarmInfo/getAlarmList</t>
   </si>
@@ -49,6 +49,14 @@
   </si>
   <si>
     <t>所有获取列表的接口是否一次行获取所有数据 如果不是 请支持分页查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的数据接口请按照统一格式进行返回类似</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{code:200, message:"", data:{}}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -56,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +85,14 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -103,11 +119,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,7 +426,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -446,6 +465,15 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>8</v>

--- a/doc/api_bug.xlsx
+++ b/doc/api_bug.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fish/Sites/dz/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23880" windowHeight="14120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -63,19 +76,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -83,7 +96,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -91,7 +104,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -135,6 +148,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -181,12 +199,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -213,14 +231,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -247,6 +266,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,22 +442,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="3" max="3" width="84.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -451,7 +471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -465,7 +485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -474,7 +494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -487,12 +507,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -501,12 +521,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
